--- a/pred_ohlcv/54_21/2020-01-14 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LAMB ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>233550.986401444</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -548,7 +548,7 @@
         <v>234929.0425014439</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>246174.8068014439</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>215944.728101444</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>217444.728101444</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>200537.852001444</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>199882.634601444</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>224315.849101444</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>224315.849101444</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>224315.849101444</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>224315.849101444</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>287967.308401444</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>287967.308401444</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>280219.817101444</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>171566.042101444</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>171566.042101444</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>175346.041801444</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>152179.839901444</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>159603.265901444</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>159586.265901444</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>152197.499101444</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>151269.909101444</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>82162.49226069089</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>110400.739975105</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>100307.0521074329</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>101674.0617644425</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>100282.4418644425</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>113682.4418644425</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>113782.4418644425</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>113982.4418644425</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>115074.4388734156</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>99409.44347341561</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>42426.44347341561</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-57496.88322658439</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-57396.88322658439</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-57296.88322658439</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-58891.35582658439</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-58791.35582658439</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-14 LAMB ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-14 LAMB ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>234929.0425014439</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>246174.8068014439</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>215944.728101444</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>217444.728101444</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>200537.852001444</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>199882.634601444</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -886,7 +886,7 @@
         <v>224315.849101444</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -938,7 +938,7 @@
         <v>224315.849101444</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -990,7 +990,7 @@
         <v>224315.849101444</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>224315.849101444</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>287967.308401444</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>287967.308401444</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>280219.817101444</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>171566.042101444</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>171566.042101444</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>175346.041801444</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H60">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>172908.401801444</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>152179.839901444</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>159603.265901444</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>159586.265901444</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>152197.499101444</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>151269.909101444</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>100307.0521074329</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>101674.0617644425</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>100282.4418644425</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>113682.4418644425</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>113782.4418644425</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>113982.4418644425</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>115074.4388734156</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>99409.44347341561</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>42426.44347341561</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-57496.88322658439</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-57396.88322658439</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-57296.88322658439</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-58891.35582658439</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-58791.35582658439</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
